--- a/information.xlsx
+++ b/information.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35119778-6587-4F95-AD90-2F22BF3383B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA7698-3572-4389-8C87-42D1DE30DCD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -397,10 +392,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -408,10 +403,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -422,6 +417,237 @@
         <v>2</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
     </row>
@@ -434,10 +660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17519CEA-AB19-42CD-AC7B-9A0E32CA9767}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -461,13 +687,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>4</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,13 +701,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -489,13 +715,405 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>26</v>
+      </c>
+      <c r="D31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -507,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E42910-1FD5-4963-837C-2E2B9A324388}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -520,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -532,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,10 +1161,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -555,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -605,6 +1223,650 @@
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -616,53 +1878,209 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F303A4F-013A-4136-B7AA-040D7B19E818}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:BM1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
+      <c r="C1">
+        <v>1</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
       </c>
       <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N1">
+        <v>1</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>1</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+      <c r="AD1">
+        <v>1</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AF1">
+        <v>1</v>
+      </c>
+      <c r="AG1">
+        <v>1</v>
+      </c>
+      <c r="AH1">
+        <v>1</v>
+      </c>
+      <c r="AI1">
+        <v>1</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1">
+        <v>1</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>1</v>
+      </c>
+      <c r="AO1">
+        <v>1</v>
+      </c>
+      <c r="AP1">
+        <v>1</v>
+      </c>
+      <c r="AQ1">
+        <v>1</v>
+      </c>
+      <c r="AR1">
+        <v>1</v>
+      </c>
+      <c r="AS1">
+        <v>1</v>
+      </c>
+      <c r="AT1">
+        <v>1</v>
+      </c>
+      <c r="AU1">
+        <v>1</v>
+      </c>
+      <c r="AV1">
+        <v>1</v>
+      </c>
+      <c r="AW1">
+        <v>1</v>
+      </c>
+      <c r="AX1">
+        <v>1</v>
+      </c>
+      <c r="AY1">
+        <v>1</v>
+      </c>
+      <c r="AZ1">
+        <v>1</v>
+      </c>
+      <c r="BA1">
+        <v>1</v>
+      </c>
+      <c r="BB1">
+        <v>1</v>
+      </c>
+      <c r="BC1">
+        <v>1</v>
+      </c>
+      <c r="BD1">
+        <v>1</v>
+      </c>
+      <c r="BE1">
+        <v>1</v>
+      </c>
+      <c r="BF1">
+        <v>1</v>
+      </c>
+      <c r="BG1">
+        <v>1</v>
+      </c>
+      <c r="BH1">
+        <v>1</v>
+      </c>
+      <c r="BI1">
+        <v>1</v>
+      </c>
+      <c r="BJ1">
+        <v>1</v>
+      </c>
+      <c r="BK1">
+        <v>1</v>
+      </c>
+      <c r="BL1">
+        <v>1</v>
+      </c>
+      <c r="BM1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/information.xlsx
+++ b/information.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA7698-3572-4389-8C87-42D1DE30DCD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C907EA4-3376-4707-A8DC-7251BDAC21C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,10 +18,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,785 +339,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17519CEA-AB19-42CD-AC7B-9A0E32CA9767}">
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>17</v>
-      </c>
-      <c r="D16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>21</v>
-      </c>
-      <c r="D21">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>22</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>11</v>
-      </c>
-      <c r="C27">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>25</v>
-      </c>
-      <c r="D28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>13</v>
-      </c>
-      <c r="C29">
-        <v>25</v>
-      </c>
-      <c r="D29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>13</v>
-      </c>
-      <c r="C30">
-        <v>26</v>
-      </c>
-      <c r="D30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>15</v>
-      </c>
-      <c r="C31">
-        <v>26</v>
-      </c>
-      <c r="D31">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>27</v>
-      </c>
-      <c r="D32">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E42910-1FD5-4963-837C-2E2B9A324388}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -1876,12 +1091,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F303A4F-013A-4136-B7AA-040D7B19E818}">
   <dimension ref="A1:BM1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
